--- a/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assesment_follow_up.xlsx
+++ b/POSHIT/Example CHT application/malaria-usecase-cht/forms/app/household_assesment_follow_up.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="157">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -264,7 +264,7 @@
     <t xml:space="preserve">contact_available</t>
   </si>
   <si>
-    <t xml:space="preserve">Is ${place_name} available?</t>
+    <t xml:space="preserve">Is the household head available?</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -490,9 +490,6 @@
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${malaria_prone}, ‘true’)</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1072,16 +1069,17 @@
   </sheetPr>
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="115.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.15"/>
@@ -3422,8 +3420,8 @@
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="28"/>
-      <c r="K54" s="22" t="s">
-        <v>140</v>
+      <c r="K54" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="L54" s="0"/>
       <c r="M54" s="28"/>
@@ -3528,7 +3526,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="1" width="45.84"/>
@@ -3536,7 +3534,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -3578,13 +3576,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -3608,13 +3606,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
@@ -3744,7 +3742,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.95"/>
@@ -3753,25 +3751,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -3795,24 +3793,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>154</v>
       </c>
       <c r="C2" s="44" t="n">
         <f aca="true">NOW()</f>
-        <v>45218.3775041772</v>
+        <v>45247.4806260319</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="45" t="s">
         <v>155</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>156</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
